--- a/Excel Files/Scenario 17/Scenario 17_TC077/expectedCustomerOrder.xlsx
+++ b/Excel Files/Scenario 17/Scenario 17_TC077/expectedCustomerOrder.xlsx
@@ -323,7 +323,7 @@
     <t>1234</t>
   </si>
   <si>
-    <t>cs1702-2310001</t>
+    <t>cs1704-2310001</t>
   </si>
   <si>
     <t>Firm</t>
@@ -347,6 +347,36 @@
     <t>FC Qty 1</t>
   </si>
   <si>
+    <t>scenario1720230604001</t>
+  </si>
+  <si>
+    <t>PK-CUS-scenario17-20230604-001</t>
+  </si>
+  <si>
+    <t>b00001</t>
+  </si>
+  <si>
+    <t>ss1704-2310001</t>
+  </si>
+  <si>
+    <t>PC</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>scenario1720230604002</t>
+  </si>
+  <si>
+    <t>PK-CUS-scenario17-20230604-002</t>
+  </si>
+  <si>
+    <t>b00002</t>
+  </si>
+  <si>
     <t>scenario1720230604005</t>
   </si>
   <si>
@@ -356,30 +386,9 @@
     <t>b00004</t>
   </si>
   <si>
-    <t>ss1702-2310001</t>
-  </si>
-  <si>
     <t>ROL</t>
   </si>
   <si>
-    <t>USD</t>
-  </si>
-  <si>
-    <t>Completed</t>
-  </si>
-  <si>
-    <t>scenario1720230604001</t>
-  </si>
-  <si>
-    <t>PK-CUS-scenario17-20230604-001</t>
-  </si>
-  <si>
-    <t>b00001</t>
-  </si>
-  <si>
-    <t>PC</t>
-  </si>
-  <si>
     <t>scenario1720230604003</t>
   </si>
   <si>
@@ -390,15 +399,6 @@
   </si>
   <si>
     <t>CRT</t>
-  </si>
-  <si>
-    <t>scenario1720230604002</t>
-  </si>
-  <si>
-    <t>PK-CUS-scenario17-20230604-002</t>
-  </si>
-  <si>
-    <t>b00002</t>
   </si>
   <si>
     <t>scenario1720230604004</t>
@@ -9929,7 +9929,7 @@
         <v>57</v>
       </c>
       <c r="C18" s="29" t="n">
-        <v>45222.0</v>
+        <v>45224.0</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -10086,7 +10086,7 @@
       </c>
       <c r="O23" s="1"/>
       <c r="P23" s="2" t="n">
-        <v>45223.0</v>
+        <v>45224.0</v>
       </c>
       <c r="Q23" s="2" t="n">
         <v>45240.0</v>
@@ -10124,19 +10124,19 @@
         <v>10.0</v>
       </c>
       <c r="I24" s="42" t="n">
-        <v>0.0</v>
+        <v>1200.0</v>
       </c>
       <c r="J24" s="27" t="s">
         <v>101</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>100.68</v>
+        <v>9.01</v>
       </c>
       <c r="L24" s="27" t="s">
         <v>102</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>0.0</v>
+        <v>10812.0</v>
       </c>
       <c r="N24" s="42" t="n">
         <v>1000.0</v>
@@ -10144,8 +10144,12 @@
       <c r="O24" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="P24" s="42"/>
-      <c r="Q24" s="42"/>
+      <c r="P24" s="42" t="n">
+        <v>1200.0</v>
+      </c>
+      <c r="Q24" s="42" t="n">
+        <v>1200.0</v>
+      </c>
       <c r="R24" s="42"/>
       <c r="S24" s="42"/>
       <c r="T24" s="42"/>
@@ -10176,16 +10180,16 @@
         <v>1200.0</v>
       </c>
       <c r="J25" s="27" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>9.01</v>
+        <v>7.01</v>
       </c>
       <c r="L25" s="27" t="s">
         <v>102</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>10812.0</v>
+        <v>8412.0</v>
       </c>
       <c r="N25" s="42" t="n">
         <v>1000.0</v>
@@ -10197,7 +10201,7 @@
         <v>1200.0</v>
       </c>
       <c r="Q25" s="42" t="n">
-        <v>1200.0</v>
+        <v>700.0</v>
       </c>
       <c r="R25" s="42"/>
       <c r="S25" s="42"/>
@@ -10205,13 +10209,13 @@
     </row>
     <row r="26">
       <c r="B26" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C26" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="C26" s="25" t="s">
+      <c r="D26" s="25" t="s">
         <v>109</v>
-      </c>
-      <c r="D26" s="25" t="s">
-        <v>110</v>
       </c>
       <c r="E26" s="25" t="s">
         <v>100</v>
@@ -10226,47 +10230,41 @@
         <v>10.0</v>
       </c>
       <c r="I26" s="42" t="n">
-        <v>900.0</v>
+        <v>0.0</v>
       </c>
       <c r="J26" s="27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K26" s="47" t="n">
-        <v>10.01</v>
+        <v>100.68</v>
       </c>
       <c r="L26" s="27" t="s">
         <v>102</v>
       </c>
       <c r="M26" s="47" t="n">
-        <v>9009.0</v>
+        <v>0.0</v>
       </c>
       <c r="N26" s="42" t="n">
-        <v>800.0</v>
+        <v>1000.0</v>
       </c>
       <c r="O26" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="P26" s="42" t="n">
-        <v>900.0</v>
-      </c>
+      <c r="P26" s="42"/>
       <c r="Q26" s="42"/>
-      <c r="R26" s="42" t="n">
-        <v>800.0</v>
-      </c>
-      <c r="S26" s="42" t="n">
-        <v>100.0</v>
-      </c>
+      <c r="R26" s="42"/>
+      <c r="S26" s="42"/>
       <c r="T26" s="42"/>
     </row>
     <row r="27">
       <c r="B27" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="C27" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="C27" s="25" t="s">
+      <c r="D27" s="25" t="s">
         <v>113</v>
-      </c>
-      <c r="D27" s="25" t="s">
-        <v>114</v>
       </c>
       <c r="E27" s="25" t="s">
         <v>100</v>
@@ -10281,34 +10279,36 @@
         <v>10.0</v>
       </c>
       <c r="I27" s="42" t="n">
-        <v>1200.0</v>
+        <v>900.0</v>
       </c>
       <c r="J27" s="27" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="K27" s="47" t="n">
-        <v>7.01</v>
+        <v>10.01</v>
       </c>
       <c r="L27" s="27" t="s">
         <v>102</v>
       </c>
       <c r="M27" s="47" t="n">
-        <v>8412.0</v>
+        <v>9009.0</v>
       </c>
       <c r="N27" s="42" t="n">
-        <v>1000.0</v>
+        <v>800.0</v>
       </c>
       <c r="O27" s="27" t="s">
         <v>103</v>
       </c>
       <c r="P27" s="42" t="n">
-        <v>1200.0</v>
-      </c>
-      <c r="Q27" s="42" t="n">
-        <v>700.0</v>
-      </c>
-      <c r="R27" s="42"/>
-      <c r="S27" s="42"/>
+        <v>900.0</v>
+      </c>
+      <c r="Q27" s="42"/>
+      <c r="R27" s="42" t="n">
+        <v>800.0</v>
+      </c>
+      <c r="S27" s="42" t="n">
+        <v>100.0</v>
+      </c>
       <c r="T27" s="42"/>
     </row>
     <row r="28">
@@ -10319,7 +10319,7 @@
         <v>116</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="E28" s="25" t="s">
         <v>100</v>
